--- a/groupExcel.xlsx
+++ b/groupExcel.xlsx
@@ -379,16 +379,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -737,19 +737,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="7.3" customWidth="1"/>
-    <col min="8" max="8" width="5.8" customWidth="1"/>
-    <col min="9" max="9" width="7.63" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="13.14" customWidth="1"/>
-    <col min="12" max="12" width="5.61" customWidth="1"/>
-    <col min="13" max="13" width="24.78" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -795,7 +795,7 @@
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -998,12 +998,12 @@
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>37</v>
@@ -1063,12 +1063,12 @@
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1126,12 +1126,12 @@
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1252,12 +1252,12 @@
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1508,12 +1508,12 @@
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>

--- a/groupExcel.xlsx
+++ b/groupExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,27 +76,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>160411-CNS-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JQ945</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1030/1355</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JQ504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0825/0950</t>
+    <t>160409-NST-B-AN3096-N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0630/0840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZ344 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030/1810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,39 +112,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>160413-NST-E-FJCCT3150-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QF417 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0830/1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QF610 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0910/1120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160417-GA15039SCFITS-L</t>
+    <t>160410-GA14957SC-N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JQ212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0735/0940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3U602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110/0550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160412-GA14775S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JQ603 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0700/0835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> MU738 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100/1920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160405-CNS-K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,47 +176,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3U601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0110/1310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> EK406 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> 0710/1245  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D/G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160417-GA15565SCFITS-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> JQ610</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  2030/2155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160422-NST-A-AU2933-L</t>
+    <t>0935/0940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA178  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1035/1915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160412-GA14701L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JQ605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0755/0930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU738 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100/1920 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160419-NST-H-GYTS3162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030/0800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0910/1235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUSC910D16-112-N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,151 +240,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QF030 ;QF155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2030/0800;1800/2335</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QF126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1600/1755</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160410-NST-A-XMAYJQ3084-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JQ216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2030/2235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA891</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000/2125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160415-NST-E-FJCCT3152-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA149</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0630/0840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA827</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0900/1025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160417-GA15083SC-L3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0155/1420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JQ610</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2030/2155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160418-NST-A-AN3094-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CZ343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0900/2130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000/1540</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUSC917D16-62-L3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JQ560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0730/0940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUSC913D16-66-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EK407</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1730/1940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JQ502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0735/0900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUSC910D16-67-L3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QF465</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1900/2035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CX178</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2330/0655+1</t>
+    <t>JQ603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU738</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1">
+    <row r="2" spans="1:13" ht="21.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,7 +706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1">
+    <row r="3" spans="1:13" ht="21.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -813,17 +717,19 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1">
+    <row r="4" spans="1:13" ht="21.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -833,7 +739,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -844,7 +750,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1">
+    <row r="5" spans="1:13" ht="21.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -863,37 +769,35 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1">
+    <row r="6" spans="1:13" ht="21.5" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1">
+    <row r="7" spans="1:13" ht="21.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>21</v>
@@ -907,14 +811,14 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1">
+    <row r="8" spans="1:13" ht="21.5" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -926,42 +830,42 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1">
+    <row r="9" spans="1:13" ht="21.5" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="5"/>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1">
+    <row r="10" spans="1:13" ht="21.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -972,14 +876,14 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1">
+    <row r="11" spans="1:13" ht="21.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -991,39 +895,39 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1">
+    <row r="12" spans="1:13" ht="21.5" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1">
+    <row r="13" spans="1:13" ht="21.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
@@ -1037,7 +941,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1">
+    <row r="14" spans="1:13" ht="21.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -1056,40 +960,42 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1">
+    <row r="15" spans="1:13" ht="21.5" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1">
+    <row r="16" spans="1:13" ht="21.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1100,14 +1006,14 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1">
+    <row r="17" spans="1:13" ht="21.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1119,30 +1025,28 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1">
+    <row r="18" spans="1:13" ht="21.5" customHeight="1">
       <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1">
+    <row r="19" spans="1:13" ht="21.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
@@ -1152,7 +1056,7 @@
         <v>51</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1163,7 +1067,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1">
+    <row r="20" spans="1:13" ht="21.5" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
@@ -1182,37 +1086,37 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1">
+    <row r="21" spans="1:13" ht="21.5" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
       <c r="F21" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1">
+    <row r="22" spans="1:13" ht="21.5" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>21</v>
@@ -1226,14 +1130,14 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1">
+    <row r="23" spans="1:13" ht="21.5" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1245,327 +1149,8 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="21" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="21" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="21" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" ht="21" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" ht="21" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="21" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="21" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" ht="21" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" ht="21" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="78">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A3:A5"/>
@@ -1644,61 +1229,6 @@
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="M36:M38"/>
-    <mergeCell ref="E37:E38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/groupExcel.xlsx
+++ b/groupExcel.xlsx
@@ -337,7 +337,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="center"/>
+      <alignment textRotation="0" horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -641,7 +641,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -652,7 +652,7 @@
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
